--- a/fhir/IG/ValueSet-fhir-ru-vs-stagingsystem.xlsx
+++ b/fhir/IG/ValueSet-fhir-ru-vs-stagingsystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:15:12+03:00</t>
+    <t>2022-03-10T17:36:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/ValueSet-fhir-ru-vs-stagingsystem.xlsx
+++ b/fhir/IG/ValueSet-fhir-ru-vs-stagingsystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:36:05+03:00</t>
+    <t>2022-04-27T17:36:36+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
